--- a/ATO/VA_Guide/VA - ATO Checklist.xlsx
+++ b/ATO/VA_Guide/VA - ATO Checklist.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/git/rafael5/vdp/VAM2ProjectManagement/ATO/VA_Guide/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="19940" windowHeight="19840" tabRatio="500"/>
+    <workbookView xWindow="7740" yWindow="760" windowWidth="23920" windowHeight="19300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="VA-VAEC" sheetId="1" r:id="rId1"/>
+    <sheet name="ATO Checklist" sheetId="1" r:id="rId1"/>
+    <sheet name="Appendix B" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="306">
   <si>
     <t>VA SOP</t>
   </si>
@@ -389,9 +390,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Cloud ATO</t>
-  </si>
-  <si>
     <t>PHASE</t>
   </si>
   <si>
@@ -420,13 +418,2888 @@
   </si>
   <si>
     <t>Cloud-Based VA Application  ATO Process</t>
+  </si>
+  <si>
+    <t>Authorization Requirements</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Roles / Responsibilities</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Technical/Testing Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nessus Scan </t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>credentialed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> vulnerability scan against all instances of the operating system and desktop configurations must be conducted to identify security flaws. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Actual scan results must be provided for analysis. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">All Critical and High deficiencies should be mitigated with documented mitigation evidence provided, and Moderate and Low deficiencies should be mitigated or have a documented mitigation plan. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Within the uploaded mitigation strategy, each system should conduct an analysis on the results of the vulnerability scans to determine and document those findings that are false positives, not applicable to the system, or otherwise mitigated. Additionally, findings that must be remediated through or from the vendor should also be documented as part of this analysis and should be documented. </t>
+    </r>
+  </si>
+  <si>
+    <t>·   Refer to the Threat &amp; Vulnerability Manager (TVM) guidance material located on the OIS portal at Training and Brown Bag Materials for detailed information on how to access TVM within RiskVision.</t>
+  </si>
+  <si>
+    <t>If the system’s Nessus Scan data is currently displayed in TVM within RiskVision:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Browse to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Information Central Analytics and Metrics Platform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> (ICAMP)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> and use the Remediation Effort Entry Form (REEF) to document your manual remediation effort. For each deficiency identified from the scan, the System Owner or delegate creates a response within REEF for mitigating the deficiencies and / or provides evidence that the deficiencies have been mitigated.  Also, include the scheduled completion date and status of each deficiency within REEF.  </t>
+    </r>
+  </si>
+  <si>
+    <t>Once all manual remediation has been documented within REEF, run this report https://spsites.cdw.va.gov/sites/FODW_PVT/Progress%20Reports/Progress_ReportbyRegion_Chart.rdl within ICAMP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export the report by going to the upper left side of the screen select the Actions Menu. Choose Export and select Excel. Save the file. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> System Owner or delegate then uploads the report from step 3 above to the Documents tab within RiskVision.  Mitigation information can also be provided in the Vulnerabilities tab within RiskVision. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within the uploaded mitigation strategy, each system should conduct an analysis on the results of the vulnerability scans to determine and document those findings that are false positives, not applicable to the system, or otherwise mitigated. Additionally, findings that must be remediated through or from the vendor should also be documented as part of this analysis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the system’s Nessus Scan data is not currently displayed in TVM within RiskVision: </t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:  If Nessus Scan data is not currently provided in TVM for the system and instead raw Nessus Scan results exist from CSOC, the System Owner or delegate shall upload the actual Nessus Scan results to the Documents tab in RiskVision; along with a mitigation strategy for each finding. Also, within ICAMP, if the ISO/System Owner does not have an option to pull a report for their FISMA reportable system, then contact the VA GRC Service Desk to provide the IP address range of the system authorization boundary to add it to ICAMP to pull the report.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Owner or delegate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> creates one finding and a response in the Findings tab within RiskVision for the Nessus scan to serve as a reminder to resolve the deficiencies.</t>
+    </r>
+  </si>
+  <si>
+    <t>·   Contact OIS at: vaoisisrmrmf@va.gov with any questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">·   TVM guidance material located on the OIS portal at Training and Brown Bag Materials </t>
+  </si>
+  <si>
+    <t>Quality Code Review</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Quality code reviews of custom developed VA applications using the approved VA static code analysis tool should be conducted to identify code quality issues within VA applications.  </t>
+    </r>
+  </si>
+  <si>
+    <t>·  Applications written in languages that are not supported, such as MUMPS, shall be targeted for manual review of testing with other applicable tools; notify the VA Software Assurance (SwA) Program Office if this is the case at: OISSwASupportGroup@va.gov.</t>
+  </si>
+  <si>
+    <t>V&amp;V Quality Code Reviews</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">VA Application Developers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>open a NSD ticket [(855) NSD-HELP] to request VA static code analysis tools in order to perform scans according to the procedures in the VA Quality Code Review SOP and guidance materials.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>VA Application Developers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> scan their own application source code. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>VA Application Developers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> open a NSD ticket [(855) NSD-HELP] to request validation of a final V&amp;V quality code review.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>VA Application Developers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> deliver the scan results to the VA SwA Program Office at: OISSwASupportGroup@va.gov for review, work with the VA SwA Program Office to schedule the validation, and coordinate with them to resolve any issues identified during validation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">The scan results are reviewed to ensure that minimum VA standards have been met. The VA SwA Program Office determines whether additional analysis is needed, and works with the VA Application Developers to ensure that they understand how to meet the standards required. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Owner or delegate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> uploads full test results to the Documents tab in RiskVision.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Owner or delegate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> creates a response for mitigating the deficiencies and/or provides evidence that the deficiencies have been mitigated for each deficiency identified from the V&amp;V quality code review. Also, include the scheduled completion date and status of each deficiency. Information should be provided in Excel or Word format; refer to the OIS preferred template located on the OIS Portal at A&amp;A Home Documents. System Owner or delegate uploads the aforementioned document to the Documents tab in RiskVision. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Owner or delegate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> creates one finding and a response in the Findings tab within RiskVision for the V&amp;V quality code review to serve as a reminder to resolve the deficiencies.</t>
+    </r>
+  </si>
+  <si>
+    <t>·   For detailed instructions on the code reviews process, reference the VA Quality Code Review SOP and guidance materials, which are posted on the VA SwA Program Office Resource Site.</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">V&amp;V secure code reviews of custom developed VA applications must be conducted according to the VA Secure Code Review SOP located at </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">VA SwA Program Office Resource </t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>V&amp;V secure code reviews are conducted by the VA Application Developers.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">·   Applications written in languages that are not supported, such as MUMPS, shall be targeted for manual review or testing with other applicable tools (notify OIS if this is the case at: OISSwASupportGroup@va.gov). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V&amp;V Secure Code Reviews </t>
+  </si>
+  <si>
+    <t>·   VA Application Developers open a NSD ticket [(855) NSD-HELP] to request VA static code analysis tools; they scan their own application source code; open a NSD ticket to request validation of a final V&amp;V secure code review; deliver the scan results to the VA SwA Program Office at OISSwASupportGroup@va.gov for review; work with the VA SwA Program Office to schedule the validation; and coordinate with them to resolve any issues identified during validation.</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Owner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> or delegate is responsible for coordinating the mitigation of deficiencies, documenting the mitigation plans, and uploading them along with the secure code review results to RiskVision under Entity Details: Documents tab. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Owner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> or delegate creates one finding and a response in the Findings tab within RiskVision for the secure code review to serve as a reminder to resolve the deficiencies.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Contact the NSD Help Desk [(855) NSD-HELP] to request tools (Fortify), reviews, or technical support</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Penetration Test/Application Assessment </t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">A full penetration test/application assessment must be performed that includes automated and manual assessment tools and techniques on Internet Facing and/or High Impact Systems. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">For Internet facing applications, if the application utilizes multiple servers then a WASA and Penetration Test are required, regardless of the FIPS categorization. If the Internet facing application only uses one server then only a WASA is required. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Actual test results must be provided for analysis.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>All Critical and High deficiencies should be mitigated with documented mitigation evidence provided, and Moderate and Low deficiencies should be mitigated or have a documented mitigation plan.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">·   System Owner or delegate contacts ISRM at vaoisisrmrmf@va.gov to request penetration test/application assessment from CSOC. </t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CSOC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> conducts penetration test/application assessment and provides results to system POCs. Please allow 30 days for CSOC to schedule/conduct the penetration test/application assessment.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Owner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> or delegate is responsible for coordinating the mitigation of deficiencies, documenting the mitigation plans, and uploading them along with the test results to RiskVision under Entity Details: Documents tab.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Owner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> or delegate creates one finding and a response in the Findings tab within RiskVision for the penetration test/application assessment to serve as a reminder to resolve the deficiencies.</t>
+    </r>
+  </si>
+  <si>
+    <t>·   Contact OIS at: vaoisisrmrmf@va.gov with any questions</t>
+  </si>
+  <si>
+    <t>Security Control Assessment (SCA) (if applicable)</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>An SCA will be required only upon request from OIS.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>If an SCA is required, all Critical and High POA&amp;Ms should be mitigated with documented mitigation evidence provided, and Moderate and Low POA&amp;Ms should be mitigated or have a documented mitigation plan.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Once notified by OIS that an SCA is required, the appropriate </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>audit team will be notified by OCS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> to schedule the assessment.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> The assigned </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>audit team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> will conduct the SCA.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>OIS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> will create a SCA program for the appropriate entity in GRC that was audited.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> The </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>audit team lead</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> will upload the deliverables, to include the SCA report and import the POAMs, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>within 4 weeks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> of completion of the audit.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">System Owner or delegate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">creates responses to the POAMs/findings within </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>15 days</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> of the POAMs uploaded.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">·  Contact OIS at: vaoisisrmrmf@va.gov </t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Compliance data must be obtained for all IP addresses that make up a system and must check against VA approved hardening guidance for all Operating Systems, Databases, Networks, and Security Devices, where guidance exists. The Security Configuration Compliance Data requires a 90% compliance for a full ATO.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>For systems with IP address ranges internal to the VA that have the IBM BigFix agent installed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>·   System Owner/Delegate should verify their IP addresses or system names by reviewing the boundaries displayed in the Enterprise Visibility and Vulnerability Management (EVVM) Dashboard. Regional GSS boundaries can be found at: https://dashboard.tic.va.gov/s/290/</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Facility GSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> boundaries can be found at: https://dashboard.tic.va.gov/s/291/. If there are any discrepancies found please send an email to the ISRM (vaoisisrmrmf@va.gov) and CC the OIS EV Support Group (OISEVSupportGroup@va.gov). </t>
+    </r>
+  </si>
+  <si>
+    <t>·   After reviewing information system boundaries for accuracy, System Owner/Delegate should run the Security Configuration Compliance Data (SCCD) Checklist Trending and Compliance Trending reports and export them to PDF from the EVVM Dashboard (https://dashboard.tic.va.gov &gt; Enterprise &gt; All Systems &gt; Authorization &amp; Accreditation). Checklist Trending reports are located at:</t>
+  </si>
+  <si>
+    <t>Regional GSS: https://dashboard.tic.va.gov/s/28T/</t>
+  </si>
+  <si>
+    <t>Facility GSS: https://dashboard.tic.va.gov/s/28V/</t>
+  </si>
+  <si>
+    <t>System: https://dashboard.tic.va.gov/s/28X/</t>
+  </si>
+  <si>
+    <r>
+      <t>Compliance Trending</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> reports are located at:</t>
+    </r>
+  </si>
+  <si>
+    <t>Regional GSS: https://dashboard.tic.va.gov/s/28U/</t>
+  </si>
+  <si>
+    <t>Facility GSS: https://dashboard.tic.va.gov/s/28W/</t>
+  </si>
+  <si>
+    <t>System: https://dashboard.tic.va.gov/s/28Y/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When running the compliance reports please select the applicable information system (Note: Both boundary data and compliance data are updated nightly). </t>
+  </si>
+  <si>
+    <r>
+      <t>For systems with IP address ranges external to the VA or for systems without the IBM BigFix agent installed yet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: The IBM BigFix agent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>must be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> installed to receive SCCD. For systems that used to have CSOC provide SCCD, IBM BigFix is outside the scope of the CSOC vulnerability scanning team and CSOC no longer provides SCCD. The System Owner or delegate must ensure the following steps are completed in order to obtain SCCD from IBM BigFix.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The system must be defined in RiskVision.</t>
+    </r>
+  </si>
+  <si>
+    <t>·   The IP addresses/IP address range of all hosts (servers/workstations) that make up the system must be captured in RiskVision. The System Owner or delegate contacts ISRM at vaoisisrmrmf@va.gov to ensure the IP addresses or system names that make up their system(s) are appropriately tagged or accounted for in RiskVision.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">·   The hosts must have the IBM BigFix agent installed. If the system owner or delegate has issues installing the IBM BigFix agent, then a ticket can be opened with the OIS EV Support team (OISEVSupportGroup@va.gov) to get it installed and functioning properly. Details of the system (FISMA boundary name/hostnames/IP addresses/system admin contact information) need to be included with the ticket request. </t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">System Owner or Delegate uploads the Compliance Trending and Checklist Trending reports to the Documents tab in RiskVision. The Compliance Trending and Checklist Trending reports can be found at https://dashboard.tic.va.gov/s/28U/ and https://dashboard.tic.va.gov/s/28T/, respectively.   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Owner or Delegate creates one finding/POA&amp;M and a response in the Findings tab within RiskVision for the SCCD to serve as a reminder to resolve the deficiencies.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">System Owner or Delegate continues to remediate deficiencies identified from the Compliance Trending and Checklist Trending reports.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Owner or Delegate uploads new Compliance Trending and Checklist Trending reports to Documents tab within RiskVision as evidence to show the remediation progress</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Contact OIS at: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>vaoisisrmrmf@va.gov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>and CSOC, or the Enterprise Visibility Team at: OISEVSupportGroup@va.gov with any questions</t>
+    </r>
+  </si>
+  <si>
+    <t>·  Internal Compliance reports location: https://dashboard.tic.va.gov &gt; Enterprise &gt; All Systems &gt; Authorization &amp; Accreditation</t>
+  </si>
+  <si>
+    <t>·  OIS preferred template location on the OIS Portal at A&amp;A Home Documents</t>
+  </si>
+  <si>
+    <t>Security Documentation Requirements</t>
+  </si>
+  <si>
+    <t>System Security Plan (SSP)</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The SSP is developed within RiskVision.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>All required diagrams and confirmation of the security authorization boundary to include all devices and supporting software architecture should be included.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>All controls must be addressed. A finding will need to be created in RiskVision for every control that is not in place.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Steward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> completes the assessments in RiskVision and develops findings and responses in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Findings </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>tab for controls not in place.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ISO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> validates information added by the System Steward in RiskVision. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The ISO, System Owner or delegate/System Steward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> exports the SSP from RiskVision and uploads the document to the Documents tab in RiskVision.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>NIST SP 800-18 and VA Handbook 6500.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Additional guidance for completion of the SSP can be provided by OIS</t>
+    </r>
+  </si>
+  <si>
+    <t>Minor Application Self-Assessment</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Minor Application Self-Assessment must be completed for all minor applications.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The ISO, Project team, and the SS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>, working in conjunction should prepare the Minor Application Security Control Summary and provide implementation detail for all applicable security controls and upload the Self-Assessment to GSS/MA Documents repository in RiskVision.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Minor Application Self Assessment SOP</t>
+    </r>
+  </si>
+  <si>
+    <t>(Appendix D)</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The Signatory Authority must be signed and dated by the appropriate parties.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">·       System Owner or delegate completes the Signatory Authority using the template provided at A&amp;A Home Documents and uploads the Signatory Authority to RiskVision under Entity Details: Documents tab. </t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>NIST SP 800-18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Additional guidance for completion of the Signatory Authority can be provided by OIS </t>
+    </r>
+  </si>
+  <si>
+    <t>Risk Assessment (RA)</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The RA is developed within RiskVision.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Steward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> completes the assessments in RiskVision.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ISO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> validates information added by the System Steward in RiskVision.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The ISO, System Owner or delegate/System Steward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> exports the RA from RiskVision and uploads the document to the Documents tab in RiskVision.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>NIST SP 800-30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Additional guidance for completion of the RA can be provided by the Office of Risk Management and Incident Reporting (RMIR)/OIS</t>
+    </r>
+  </si>
+  <si>
+    <t>Configuration Management Plan (CMP)</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">The CMP should include processes for managing configuration and change management. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The CMP should include infrastructure devices and baseline configurations (e.g., switches, routers, firewalls).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The CMP should include a configuration file for each operating system(s), database(s), application(s), and network device(s) to validate compliance with baseline configuration.</t>
+    </r>
+  </si>
+  <si>
+    <t>·       System Owner or delegate completes the CMP using the template provided at A&amp;A Home Documents and uploads the CMP as evidence to RiskVision under Entity Details: Documents tab.</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>NIST SP 800-70 and VA Handbook 6500</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Additional guidance for completion of the CMP can be provided by OIS</t>
+    </r>
+  </si>
+  <si>
+    <t>Incident Response Plan (IRP)</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The IRP must be created using RA and SSP.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The IRP must meet the following standards:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">  Information Access and Privacy Program </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">  NIST Special Publication 800-61 - Computer  Security Incident Handling Guide </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">  VA Handbook 6500.3, Certification and Authorization of Federal Information Systems</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Each site is responsible for developing local level procedures incorporating VA-CSOC areas of responsibility. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Owner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> works with the assigned </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ISO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> to create the IRP. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Owner or designee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> uploads the signed IRP into RiskVision once completed and tested.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>NIST SP 800-61</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Useful tools and websites:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">·    Agiliance RiskVision Enterprise Operations GRC Instance </t>
+  </si>
+  <si>
+    <t>·    Agiliance RiskVision National Release GRC Instance</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> OIS Cyber Security Portal</t>
+    </r>
+  </si>
+  <si>
+    <t>·    OIS Cyber Security Portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information Security Contingency Plan (ISCP) </t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The ISCP must be created using following inputs:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">  Preliminary Information System Contingency Plan </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">  Primary Site System Security Plan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">  Backup Site System Security Plan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The ISCP must meet the following standards:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">  NIST Special Publication 800-34 Rev. 1 - Contingency Planning Guide for Federal Information Systems </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">  Office of Information Security, Authorization Requirements Guide Standard Operating Procedures </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">  VA Handbook 6500.8, Information System Contingency Planning</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Owner or delegate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> develops or revises the Information System Contingency Plan.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Owner or designee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> uploads the Information System Contingency Plan into RiskVision.</t>
+    </r>
+  </si>
+  <si>
+    <t>Disaster Recovery Plan (DRP)</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The DRP must be created using following inputs:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The DRP must meet the following standards:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Owner or designee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> develops the DRP as the entry point for the creation of both the facility and data center plans. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Owner or designee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> uploads the DRP into RiskVision once completed and tested.</t>
+    </r>
+  </si>
+  <si>
+    <t>Privacy Impact Assessment (PIA)</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>A complete PIA must have:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>A previously completed Privacy Threshold Analysis (PTA).</t>
+    </r>
+  </si>
+  <si>
+    <t>·       Been completed in the most up-to-date and Privacy Services approved template for both the PTA and PIA. The PTA and PIA template can be found at A&amp;A Home Documents</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Been completed in coordination with the VA Privacy Services Office.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Been signed by the System Owner, Privacy Officer, and ISO.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Been re-submitted whenever there are major changes to the system or within 3 years.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">·   System Owner, Privacy Officer, and ISO work together to submit a PTA, which is reviewed by the Privacy Services Office. After review and determination by analysts, the PTA must be signed by the System Owner, Privacy Officer, ISO, and any other relevant stakeholders and re-submitted to the Privacy Services Office via PIASupport@va.gov. If a PIA is required as an outcome of the PTA analysis by the Privacy Services Office, a PIA must be completed and submitted to the Privacy Services Office and then comments by the analysts, if any, must be incorporated. </t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Privacy Services</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> verifies PIA and provides results.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">·   System Owner or delegate re-submits the PIA as a PDF file with the signatures of the System Owner, Privacy Officer, ISO, and any other relevant stakeholders to PIASupport@va.gov. </t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Owner or delegate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> uploads the PIA to RiskVision under Entity Details: Documents tab.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Authority is found in E-Government Act of 2002, OMB Circular 03-22, VA Directive 6502, VA Directive 6508, and VA Handbook 6508.1</t>
+    </r>
+  </si>
+  <si>
+    <t>·  Additional guidance for completion of the PIA/PTA can be provided by the Privacy Services Office.  Any questions may be sent to PIASupport@va.gov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interconnection Security Agreement (ISA)/ Memorandum of Understanding (MOU) </t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>An ISA/MOU must be provided for all external interconnections.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System Owner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> in coordination with the entities identified in NIST SP 800-47 will complete the ISA/MOU using the latest template provided at:  OIS Portal or A&amp;A Home Documents.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ISO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> will upload all final draft MOU/ISA documents to the MOU/ISA Review Submissions SharePoint site for a review prior to requesting signatures.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>VA review team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> will assess the documents against a checklist for quality and content. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Reviewer and the ISO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> will work collaboratively to correct deficiencies found in the documentation. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Reviewer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> will notify the ISO via email informing them that the document is ready for signatures.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ISO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> will process the document for signature.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ISO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> will upload the document to the Enterprise Document SharePoint upon receipt of the completed and signed MOU/ISA document,. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The finalized document should also be added to the existing A&amp;A artifacts in RiskVision.</t>
+    </r>
+  </si>
+  <si>
+    <t>·  NIST SP 800-47, VA Handbook 6500, and FSS Bulletin#269</t>
+  </si>
+  <si>
+    <t>·  Additional guidance can be provided by the Health Information Security Division at vafsshisd@va.gov or the OIT ERM CRISP Team at Sharon.mcallister@va.gov</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -446,8 +3319,127 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Symbol"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.5"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Symbol"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10.5"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Symbol"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Symbol"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,8 +3464,38 @@
         <bgColor rgb="FF434343"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003F72"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA7C0D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9EFF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE5F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -481,11 +3503,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -524,8 +3641,282 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -536,6 +3927,836 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="990600"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="69735700"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="90246200"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="110858300"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="124777500"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="184404000"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="195427600"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200190100"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="203327000"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="210921600"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="220078300"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="233781600"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="252158500"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="263906000"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="285965900"/>
+          <a:ext cx="139700" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -806,13 +5027,13 @@
   </sheetPr>
   <dimension ref="A1:K994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="3" max="3" width="51.6640625" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" style="13" customWidth="1"/>
     <col min="5" max="5" width="7.5" customWidth="1"/>
@@ -852,7 +5073,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -871,38 +5092,35 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>126</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>128</v>
-      </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>120</v>
-      </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,7 +5194,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -990,31 +5208,31 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>126</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>128</v>
       </c>
       <c r="J10" s="15"/>
     </row>
@@ -5565,4 +9783,1209 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="55.5" customWidth="1"/>
+    <col min="4" max="4" width="92.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="77"/>
+    </row>
+    <row r="2" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="92" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="93"/>
+      <c r="C2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+    </row>
+    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="101"/>
+      <c r="B4" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="100"/>
+      <c r="B5" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="100"/>
+      <c r="B6" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="100"/>
+      <c r="B7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="100"/>
+      <c r="B8" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="100"/>
+      <c r="B9" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="100"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="100"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="100"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="100"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="102"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="107"/>
+      <c r="B15" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="97" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="106"/>
+      <c r="B16" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="98"/>
+    </row>
+    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="106"/>
+      <c r="B17" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="98"/>
+    </row>
+    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="106"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="98"/>
+    </row>
+    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="106"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="98"/>
+    </row>
+    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="106"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="98"/>
+    </row>
+    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="106"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="98"/>
+    </row>
+    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="106"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="98"/>
+    </row>
+    <row r="23" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="108"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="99"/>
+    </row>
+    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="82"/>
+      <c r="B24" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="81"/>
+      <c r="B25" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="104"/>
+    </row>
+    <row r="26" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="81"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="104"/>
+    </row>
+    <row r="27" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="81"/>
+      <c r="B27" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="104"/>
+    </row>
+    <row r="28" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="81"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="104"/>
+    </row>
+    <row r="29" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="81"/>
+      <c r="B29" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="104"/>
+    </row>
+    <row r="30" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="81"/>
+      <c r="B30" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="104"/>
+    </row>
+    <row r="31" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="83"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="105"/>
+    </row>
+    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="101"/>
+      <c r="B32" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="97" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="100"/>
+      <c r="B33" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="98"/>
+    </row>
+    <row r="34" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="100"/>
+      <c r="B34" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="98"/>
+    </row>
+    <row r="35" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="100"/>
+      <c r="B35" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="98"/>
+    </row>
+    <row r="36" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="100"/>
+      <c r="B36" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="98"/>
+    </row>
+    <row r="37" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="102"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="99"/>
+    </row>
+    <row r="38" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="82"/>
+      <c r="B38" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="94" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="81"/>
+      <c r="B39" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="95"/>
+    </row>
+    <row r="40" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="81"/>
+      <c r="B40" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="95"/>
+    </row>
+    <row r="41" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="81"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="95"/>
+    </row>
+    <row r="42" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="83"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" s="96"/>
+    </row>
+    <row r="43" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="79"/>
+      <c r="B43" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="78"/>
+      <c r="B44" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="78"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="78"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="48"/>
+    </row>
+    <row r="47" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="78"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="48"/>
+    </row>
+    <row r="48" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="78"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="48"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="78"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49" s="48"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="78"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="48"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="78"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" s="48"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="78"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" s="48"/>
+    </row>
+    <row r="53" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="78"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D53" s="48"/>
+    </row>
+    <row r="54" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="78"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="48"/>
+    </row>
+    <row r="55" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="78"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="48"/>
+    </row>
+    <row r="56" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="78"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" s="48"/>
+    </row>
+    <row r="57" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="78"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="48"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="78"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="D58" s="48"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="78"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" s="48"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="78"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" s="48"/>
+    </row>
+    <row r="61" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="78"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="D61" s="48"/>
+    </row>
+    <row r="62" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="78"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="D62" s="48"/>
+    </row>
+    <row r="63" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="78"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="48"/>
+    </row>
+    <row r="64" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="78"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" s="48"/>
+    </row>
+    <row r="65" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="80"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="49"/>
+    </row>
+    <row r="66" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="92" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="93"/>
+      <c r="C66" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="B67" s="90"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="91"/>
+    </row>
+    <row r="68" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="79"/>
+      <c r="B68" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="C68" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="D68" s="46" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="78"/>
+      <c r="B69" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="C69" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" s="46" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="78"/>
+      <c r="B70" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="C70" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="D70" s="54"/>
+    </row>
+    <row r="71" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="80"/>
+      <c r="B71" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="58"/>
+      <c r="D71" s="49"/>
+    </row>
+    <row r="72" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="79"/>
+      <c r="B72" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C72" s="87" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72" s="46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="80"/>
+      <c r="B73" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C73" s="88"/>
+      <c r="D73" s="60" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="82"/>
+      <c r="B74" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="81"/>
+      <c r="B75" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="85"/>
+      <c r="D75" s="34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="83"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="42"/>
+    </row>
+    <row r="77" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="79"/>
+      <c r="B77" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77" s="46" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="78"/>
+      <c r="B78" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="D78" s="46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="78"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="D79" s="48"/>
+    </row>
+    <row r="80" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="80"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="49"/>
+    </row>
+    <row r="81" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="82"/>
+      <c r="B81" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C81" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="D81" s="34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="81"/>
+      <c r="B82" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" s="85"/>
+      <c r="D82" s="34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="81"/>
+      <c r="B83" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="C83" s="85"/>
+      <c r="D83" s="41"/>
+    </row>
+    <row r="84" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="83"/>
+      <c r="B84" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="C84" s="86"/>
+      <c r="D84" s="42"/>
+    </row>
+    <row r="85" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="79"/>
+      <c r="B85" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="D85" s="46" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="78"/>
+      <c r="B86" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86" s="46" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="78"/>
+      <c r="B87" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" s="48"/>
+      <c r="D87" s="64" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="78"/>
+      <c r="B88" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="C88" s="48"/>
+      <c r="D88" s="64" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="78"/>
+      <c r="B89" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="C89" s="48"/>
+      <c r="D89" s="64" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="78"/>
+      <c r="B90" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+    </row>
+    <row r="91" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="80"/>
+      <c r="B91" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
+    </row>
+    <row r="92" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="82"/>
+      <c r="B92" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D92" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="81"/>
+      <c r="B93" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="C93" s="68" t="s">
+        <v>275</v>
+      </c>
+      <c r="D93" s="69" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="81"/>
+      <c r="B94" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="C94" s="41"/>
+      <c r="D94" s="69" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="81"/>
+      <c r="B95" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="C95" s="41"/>
+      <c r="D95" s="69" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="81"/>
+      <c r="B96" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+    </row>
+    <row r="97" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="81"/>
+      <c r="B97" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+    </row>
+    <row r="98" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="81"/>
+      <c r="B98" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+    </row>
+    <row r="99" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="81"/>
+      <c r="B99" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+    </row>
+    <row r="100" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="83"/>
+      <c r="B100" s="67" t="s">
+        <v>273</v>
+      </c>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
+    </row>
+    <row r="101" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="79"/>
+      <c r="B101" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="C101" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="D101" s="46" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="78"/>
+      <c r="B102" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="C102" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="D102" s="64" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="78"/>
+      <c r="B103" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="C103" s="48"/>
+      <c r="D103" s="64" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="78"/>
+      <c r="B104" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="C104" s="48"/>
+      <c r="D104" s="71" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="78"/>
+      <c r="B105" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="C105" s="48"/>
+      <c r="D105" s="48"/>
+    </row>
+    <row r="106" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="80"/>
+      <c r="B106" s="70" t="s">
+        <v>272</v>
+      </c>
+      <c r="C106" s="49"/>
+      <c r="D106" s="49"/>
+    </row>
+    <row r="107" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="82"/>
+      <c r="B107" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C107" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="D107" s="68" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="81"/>
+      <c r="B108" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="C108" s="68" t="s">
+        <v>289</v>
+      </c>
+      <c r="D108" s="38" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="81"/>
+      <c r="B109" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="C109" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="D109" s="41"/>
+    </row>
+    <row r="110" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="81"/>
+      <c r="B110" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="C110" s="68" t="s">
+        <v>291</v>
+      </c>
+      <c r="D110" s="41"/>
+    </row>
+    <row r="111" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="81"/>
+      <c r="B111" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="C111" s="41"/>
+      <c r="D111" s="41"/>
+    </row>
+    <row r="112" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="81"/>
+      <c r="B112" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41"/>
+    </row>
+    <row r="113" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="83"/>
+      <c r="B113" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="C113" s="42"/>
+      <c r="D113" s="42"/>
+    </row>
+    <row r="114" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="79"/>
+      <c r="B114" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="C114" s="73" t="s">
+        <v>296</v>
+      </c>
+      <c r="D114" s="51" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="78"/>
+      <c r="B115" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="C115" s="73" t="s">
+        <v>297</v>
+      </c>
+      <c r="D115" s="51" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="78"/>
+      <c r="B116" s="48"/>
+      <c r="C116" s="73" t="s">
+        <v>298</v>
+      </c>
+      <c r="D116" s="48"/>
+    </row>
+    <row r="117" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="78"/>
+      <c r="B117" s="48"/>
+      <c r="C117" s="73" t="s">
+        <v>299</v>
+      </c>
+      <c r="D117" s="48"/>
+    </row>
+    <row r="118" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="78"/>
+      <c r="B118" s="48"/>
+      <c r="C118" s="73" t="s">
+        <v>300</v>
+      </c>
+      <c r="D118" s="48"/>
+    </row>
+    <row r="119" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="78"/>
+      <c r="B119" s="48"/>
+      <c r="C119" s="73" t="s">
+        <v>301</v>
+      </c>
+      <c r="D119" s="48"/>
+    </row>
+    <row r="120" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="78"/>
+      <c r="B120" s="48"/>
+      <c r="C120" s="73" t="s">
+        <v>302</v>
+      </c>
+      <c r="D120" s="48"/>
+    </row>
+    <row r="121" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="80"/>
+      <c r="B121" s="49"/>
+      <c r="C121" s="74" t="s">
+        <v>303</v>
+      </c>
+      <c r="D121" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="D15:D23"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A43:A65"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A114:A121"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="C74:C76"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="B17" r:id="rId5"/>
+    <hyperlink ref="D15" r:id="rId6"/>
+    <hyperlink ref="B27" r:id="rId7"/>
+    <hyperlink ref="B30" r:id="rId8"/>
+    <hyperlink ref="C25" r:id="rId9"/>
+    <hyperlink ref="C32" r:id="rId10"/>
+    <hyperlink ref="D32" r:id="rId11"/>
+    <hyperlink ref="D38" r:id="rId12"/>
+    <hyperlink ref="C44" r:id="rId13"/>
+    <hyperlink ref="C46" r:id="rId14"/>
+    <hyperlink ref="C47" r:id="rId15"/>
+    <hyperlink ref="C48" r:id="rId16"/>
+    <hyperlink ref="C49" r:id="rId17"/>
+    <hyperlink ref="C52" r:id="rId18"/>
+    <hyperlink ref="C53" r:id="rId19"/>
+    <hyperlink ref="C54" r:id="rId20"/>
+    <hyperlink ref="C60" r:id="rId21"/>
+    <hyperlink ref="C61" r:id="rId22"/>
+    <hyperlink ref="D44" r:id="rId23"/>
+    <hyperlink ref="D45" r:id="rId24"/>
+    <hyperlink ref="D73" location="_Appendix_D_–" display="(Appendix D)"/>
+    <hyperlink ref="C74" r:id="rId25"/>
+    <hyperlink ref="C81" r:id="rId26"/>
+    <hyperlink ref="D87" r:id="rId27"/>
+    <hyperlink ref="D88" r:id="rId28"/>
+    <hyperlink ref="D89" r:id="rId29"/>
+    <hyperlink ref="D93" r:id="rId30"/>
+    <hyperlink ref="D94" r:id="rId31"/>
+    <hyperlink ref="D95" r:id="rId32"/>
+    <hyperlink ref="D102" r:id="rId33"/>
+    <hyperlink ref="D103" r:id="rId34"/>
+    <hyperlink ref="B110" r:id="rId35"/>
+    <hyperlink ref="C107" r:id="rId36"/>
+    <hyperlink ref="C109" r:id="rId37"/>
+    <hyperlink ref="D108" r:id="rId38"/>
+    <hyperlink ref="D114" r:id="rId39"/>
+    <hyperlink ref="D115" r:id="rId40"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId41"/>
+</worksheet>
 </file>